--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H2">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.3397939459292</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N2">
-        <v>2.3397939459292</v>
+        <v>7.983857</v>
       </c>
       <c r="O2">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P2">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q2">
-        <v>108.6765318454687</v>
+        <v>199.8594717978646</v>
       </c>
       <c r="R2">
-        <v>108.6765318454687</v>
+        <v>1798.735246180782</v>
       </c>
       <c r="S2">
-        <v>0.0006192730554093837</v>
+        <v>0.00109655177432248</v>
       </c>
       <c r="T2">
-        <v>0.0006192730554093837</v>
+        <v>0.001096551774322479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H3">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I3">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J3">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.1681064567775</v>
+        <v>41.3123</v>
       </c>
       <c r="N3">
-        <v>41.1681064567775</v>
+        <v>123.9369</v>
       </c>
       <c r="O3">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P3">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q3">
-        <v>1912.13719488058</v>
+        <v>3102.5058903566</v>
       </c>
       <c r="R3">
-        <v>1912.13719488058</v>
+        <v>27922.5530132094</v>
       </c>
       <c r="S3">
-        <v>0.01089595907163648</v>
+        <v>0.01702225222709121</v>
       </c>
       <c r="T3">
-        <v>0.01089595907163648</v>
+        <v>0.01702225222709121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H4">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I4">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J4">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.87172766363</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N4">
-        <v>13.87172766363</v>
+        <v>0.151588</v>
       </c>
       <c r="O4">
-        <v>0.241753530496797</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P4">
-        <v>0.241753530496797</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q4">
-        <v>644.3008606851789</v>
+        <v>3.794694420365333</v>
       </c>
       <c r="R4">
-        <v>644.3008606851789</v>
+        <v>34.152249783288</v>
       </c>
       <c r="S4">
-        <v>0.003671428926042259</v>
+        <v>2.082002350067093E-05</v>
       </c>
       <c r="T4">
-        <v>0.003671428926042259</v>
+        <v>2.082002350067092E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2965.27213265818</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H5">
-        <v>2965.27213265818</v>
+        <v>225.296526</v>
       </c>
       <c r="I5">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J5">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3397939459292</v>
+        <v>14.96084766666667</v>
       </c>
       <c r="N5">
-        <v>2.3397939459292</v>
+        <v>44.882543</v>
       </c>
       <c r="O5">
-        <v>0.04077743312006413</v>
+        <v>0.2536383340820741</v>
       </c>
       <c r="P5">
-        <v>0.04077743312006413</v>
+        <v>0.253638334082074</v>
       </c>
       <c r="Q5">
-        <v>6938.125784026178</v>
+        <v>1123.542335105069</v>
       </c>
       <c r="R5">
-        <v>6938.125784026178</v>
+        <v>10111.88101594562</v>
       </c>
       <c r="S5">
-        <v>0.0395356226420439</v>
+        <v>0.006164443095956628</v>
       </c>
       <c r="T5">
-        <v>0.0395356226420439</v>
+        <v>0.006164443095956626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2965.27213265818</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H6">
-        <v>2965.27213265818</v>
+        <v>8898.227294</v>
       </c>
       <c r="I6">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J6">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.1681064567775</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N6">
-        <v>41.1681064567775</v>
+        <v>7.983857</v>
       </c>
       <c r="O6">
-        <v>0.7174690363831387</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P6">
-        <v>0.7174690363831387</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q6">
-        <v>122074.6388305876</v>
+        <v>7893.574918754773</v>
       </c>
       <c r="R6">
-        <v>122074.6388305876</v>
+        <v>71042.17426879295</v>
       </c>
       <c r="S6">
-        <v>0.6956196824914326</v>
+        <v>0.0433089985930827</v>
       </c>
       <c r="T6">
-        <v>0.6956196824914326</v>
+        <v>0.04330899859308269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2965.27213265818</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H7">
-        <v>2965.27213265818</v>
+        <v>8898.227294</v>
       </c>
       <c r="I7">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J7">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.87172766363</v>
+        <v>41.3123</v>
       </c>
       <c r="N7">
-        <v>13.87172766363</v>
+        <v>123.9369</v>
       </c>
       <c r="O7">
-        <v>0.241753530496797</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P7">
-        <v>0.241753530496797</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q7">
-        <v>41133.44747278561</v>
+        <v>122535.4118126387</v>
       </c>
       <c r="R7">
-        <v>41133.44747278561</v>
+        <v>1102818.706313749</v>
       </c>
       <c r="S7">
-        <v>0.2343913194820584</v>
+        <v>0.6723045049192428</v>
       </c>
       <c r="T7">
-        <v>0.2343913194820584</v>
+        <v>0.6723045049192427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.215784338536759</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H8">
-        <v>0.215784338536759</v>
+        <v>8898.227294</v>
       </c>
       <c r="I8">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J8">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.3397939459292</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N8">
-        <v>2.3397939459292</v>
+        <v>0.151588</v>
       </c>
       <c r="O8">
-        <v>0.04077743312006413</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P8">
-        <v>0.04077743312006413</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q8">
-        <v>0.5048908889346456</v>
+        <v>149.8738310047636</v>
       </c>
       <c r="R8">
-        <v>0.5048908889346456</v>
+        <v>1348.864479042872</v>
       </c>
       <c r="S8">
-        <v>2.877027064900347E-06</v>
+        <v>0.000822299858167327</v>
       </c>
       <c r="T8">
-        <v>2.877027064900347E-06</v>
+        <v>0.0008222998581673267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.215784338536759</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H9">
-        <v>0.215784338536759</v>
+        <v>8898.227294</v>
       </c>
       <c r="I9">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J9">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.1681064567775</v>
+        <v>14.96084766666667</v>
       </c>
       <c r="N9">
-        <v>41.1681064567775</v>
+        <v>44.882543</v>
       </c>
       <c r="O9">
-        <v>0.7174690363831387</v>
+        <v>0.2536383340820741</v>
       </c>
       <c r="P9">
-        <v>0.7174690363831387</v>
+        <v>0.253638334082074</v>
       </c>
       <c r="Q9">
-        <v>8.883432620586611</v>
+        <v>44375.00768296984</v>
       </c>
       <c r="R9">
-        <v>8.883432620586611</v>
+        <v>399375.0691467287</v>
       </c>
       <c r="S9">
-        <v>5.062059276327041E-05</v>
+        <v>0.2434685380313016</v>
       </c>
       <c r="T9">
-        <v>5.062059276327041E-05</v>
+        <v>0.2434685380313016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.215784338536759</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H10">
-        <v>0.215784338536759</v>
+        <v>0.674755</v>
       </c>
       <c r="I10">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J10">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.87172766363</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N10">
-        <v>13.87172766363</v>
+        <v>7.983857</v>
       </c>
       <c r="O10">
-        <v>0.241753530496797</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P10">
-        <v>0.241753530496797</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q10">
-        <v>2.993301578258461</v>
+        <v>0.5985719366705555</v>
       </c>
       <c r="R10">
-        <v>2.993301578258461</v>
+        <v>5.387147430034999</v>
       </c>
       <c r="S10">
-        <v>1.705677373626215E-05</v>
+        <v>3.284133162723357E-06</v>
       </c>
       <c r="T10">
-        <v>1.705677373626215E-05</v>
+        <v>3.284133162723356E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H11">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I11">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J11">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3397939459292</v>
+        <v>41.3123</v>
       </c>
       <c r="N11">
-        <v>2.3397939459292</v>
+        <v>123.9369</v>
       </c>
       <c r="O11">
-        <v>0.04077743312006413</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P11">
-        <v>0.04077743312006413</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q11">
-        <v>0.6416451159546185</v>
+        <v>9.291893662166666</v>
       </c>
       <c r="R11">
-        <v>0.6416451159546185</v>
+        <v>83.6270429595</v>
       </c>
       <c r="S11">
-        <v>3.65629565738017E-06</v>
+        <v>5.098103377542062E-05</v>
       </c>
       <c r="T11">
-        <v>3.65629565738017E-06</v>
+        <v>5.098103377542062E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H12">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I12">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J12">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>41.1681064567775</v>
+        <v>0.05052933333333334</v>
       </c>
       <c r="N12">
-        <v>41.1681064567775</v>
+        <v>0.151588</v>
       </c>
       <c r="O12">
-        <v>0.7174690363831387</v>
+        <v>0.0008566477123819265</v>
       </c>
       <c r="P12">
-        <v>0.7174690363831387</v>
+        <v>0.0008566477123819263</v>
       </c>
       <c r="Q12">
-        <v>11.28959004575969</v>
+        <v>0.01136497343777778</v>
       </c>
       <c r="R12">
-        <v>11.28959004575969</v>
+        <v>0.10228476094</v>
       </c>
       <c r="S12">
-        <v>6.433163446822372E-05</v>
+        <v>6.235522227801778E-08</v>
       </c>
       <c r="T12">
-        <v>6.433163446822372E-05</v>
+        <v>6.235522227801776E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H13">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I13">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J13">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.87172766363</v>
+        <v>14.96084766666667</v>
       </c>
       <c r="N13">
-        <v>13.87172766363</v>
+        <v>44.882543</v>
       </c>
       <c r="O13">
-        <v>0.241753530496797</v>
+        <v>0.2536383340820741</v>
       </c>
       <c r="P13">
-        <v>0.241753530496797</v>
+        <v>0.253638334082074</v>
       </c>
       <c r="Q13">
-        <v>3.804064165866547</v>
+        <v>3.364968922440555</v>
       </c>
       <c r="R13">
-        <v>3.804064165866547</v>
+        <v>30.284720301965</v>
       </c>
       <c r="S13">
-        <v>2.167675393174364E-05</v>
+        <v>1.846228557120413E-05</v>
       </c>
       <c r="T13">
-        <v>2.167675393174364E-05</v>
+        <v>1.846228557120412E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H14">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I14">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J14">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.3397939459292</v>
+        <v>2.661285666666667</v>
       </c>
       <c r="N14">
-        <v>2.3397939459292</v>
+        <v>7.983857</v>
       </c>
       <c r="O14">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="P14">
-        <v>0.04077743312006413</v>
+        <v>0.04511803595953789</v>
       </c>
       <c r="Q14">
-        <v>108.1028612398195</v>
+        <v>1.112923940038556</v>
       </c>
       <c r="R14">
-        <v>108.1028612398195</v>
+        <v>10.016315460347</v>
       </c>
       <c r="S14">
-        <v>0.0006160040998885722</v>
+        <v>6.106184061016228E-06</v>
       </c>
       <c r="T14">
-        <v>0.0006160040998885722</v>
+        <v>6.106184061016226E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H15">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I15">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J15">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.1681064567775</v>
+        <v>41.3123</v>
       </c>
       <c r="N15">
-        <v>41.1681064567775</v>
+        <v>123.9369</v>
       </c>
       <c r="O15">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="P15">
-        <v>0.7174690363831387</v>
+        <v>0.7003869822460062</v>
       </c>
       <c r="Q15">
-        <v>1902.043599841762</v>
+        <v>17.27640450776667</v>
       </c>
       <c r="R15">
-        <v>1902.043599841762</v>
+        <v>155.4876405699</v>
       </c>
       <c r="S15">
-        <v>0.01083844259283826</v>
+        <v>9.478896269707263E-05</v>
       </c>
       <c r="T15">
-        <v>0.01083844259283826</v>
+        <v>9.478896269707261E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.254571</v>
+      </c>
+      <c r="I16">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J16">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05052933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.151588</v>
+      </c>
+      <c r="O16">
+        <v>0.0008566477123819265</v>
+      </c>
+      <c r="P16">
+        <v>0.0008566477123819263</v>
+      </c>
+      <c r="Q16">
+        <v>0.02113087874977778</v>
+      </c>
+      <c r="R16">
+        <v>0.190177908748</v>
+      </c>
+      <c r="S16">
+        <v>1.159369750036014E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.159369750036013E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.254571</v>
+      </c>
+      <c r="I17">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J17">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.96084766666667</v>
+      </c>
+      <c r="N17">
+        <v>44.882543</v>
+      </c>
+      <c r="O17">
+        <v>0.2536383340820741</v>
+      </c>
+      <c r="P17">
+        <v>0.253638334082074</v>
+      </c>
+      <c r="Q17">
+        <v>6.256481872672556</v>
+      </c>
+      <c r="R17">
+        <v>56.308336854053</v>
+      </c>
+      <c r="S17">
+        <v>3.432690098087622E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.432690098087621E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>46.2018723605547</v>
-      </c>
-      <c r="H16">
-        <v>46.2018723605547</v>
-      </c>
-      <c r="I16">
-        <v>0.01510649525375528</v>
-      </c>
-      <c r="J16">
-        <v>0.01510649525375528</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.87172766363</v>
-      </c>
-      <c r="N16">
-        <v>13.87172766363</v>
-      </c>
-      <c r="O16">
-        <v>0.241753530496797</v>
-      </c>
-      <c r="P16">
-        <v>0.241753530496797</v>
-      </c>
-      <c r="Q16">
-        <v>640.899790935409</v>
-      </c>
-      <c r="R16">
-        <v>640.899790935409</v>
-      </c>
-      <c r="S16">
-        <v>0.003652048561028447</v>
-      </c>
-      <c r="T16">
-        <v>0.003652048561028447</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H18">
+        <v>144.457313</v>
+      </c>
+      <c r="I18">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J18">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.661285666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.983857</v>
+      </c>
+      <c r="O18">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="P18">
+        <v>0.04511803595953789</v>
+      </c>
+      <c r="Q18">
+        <v>128.1473921773601</v>
+      </c>
+      <c r="R18">
+        <v>1153.326529596241</v>
+      </c>
+      <c r="S18">
+        <v>0.0007030952749089787</v>
+      </c>
+      <c r="T18">
+        <v>0.0007030952749089784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H19">
+        <v>144.457313</v>
+      </c>
+      <c r="I19">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J19">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>41.3123</v>
+      </c>
+      <c r="N19">
+        <v>123.9369</v>
+      </c>
+      <c r="O19">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="P19">
+        <v>0.7003869822460062</v>
+      </c>
+      <c r="Q19">
+        <v>1989.287950616633</v>
+      </c>
+      <c r="R19">
+        <v>17903.5915555497</v>
+      </c>
+      <c r="S19">
+        <v>0.01091445510319969</v>
+      </c>
+      <c r="T19">
+        <v>0.01091445510319969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H20">
+        <v>144.457313</v>
+      </c>
+      <c r="I20">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J20">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05052933333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.151588</v>
+      </c>
+      <c r="O20">
+        <v>0.0008566477123819265</v>
+      </c>
+      <c r="P20">
+        <v>0.0008566477123819263</v>
+      </c>
+      <c r="Q20">
+        <v>2.433110573671556</v>
+      </c>
+      <c r="R20">
+        <v>21.897995163044</v>
+      </c>
+      <c r="S20">
+        <v>1.334953851664706E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.334953851664706E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H21">
+        <v>144.457313</v>
+      </c>
+      <c r="I21">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J21">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.96084766666667</v>
+      </c>
+      <c r="N21">
+        <v>44.882543</v>
+      </c>
+      <c r="O21">
+        <v>0.2536383340820741</v>
+      </c>
+      <c r="P21">
+        <v>0.253638334082074</v>
+      </c>
+      <c r="Q21">
+        <v>720.401284709662</v>
+      </c>
+      <c r="R21">
+        <v>6483.611562386959</v>
+      </c>
+      <c r="S21">
+        <v>0.003952563768263767</v>
+      </c>
+      <c r="T21">
+        <v>0.003952563768263766</v>
       </c>
     </row>
   </sheetData>
